--- a/src/test/resources/Testdata/AdminData.xlsx
+++ b/src/test/resources/Testdata/AdminData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/E4A2A880B693A299/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBD8C67A-DEC4-424B-8C95-005C6D7A1CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E7D7752-30C3-4AE5-AC6A-E552345B57E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{72BB783F-467C-458C-B547-72A9307BF8E8}"/>
   </bookViews>
@@ -39,18 +39,12 @@
     <t>ESS</t>
   </si>
   <si>
-    <t>Joy Smith</t>
-  </si>
-  <si>
     <t>Enabled</t>
   </si>
   <si>
     <t>TestUser</t>
   </si>
   <si>
-    <t>John   Doe</t>
-  </si>
-  <si>
     <t>LoginUser</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>Test1@123</t>
+  </si>
+  <si>
+    <t>John Doe Bloggs</t>
+  </si>
+  <si>
+    <t>Munni  K</t>
   </si>
 </sst>
 </file>
@@ -121,6 +121,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,7 +447,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,19 +464,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -480,19 +484,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
